--- a/3-up-and-running-with-linear-regression/mpg-regression-diagnostics-solution.xlsx
+++ b/3-up-and-running-with-linear-regression/mpg-regression-diagnostics-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\3-up-and-running-with-linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB1061F-2C67-424D-8AAF-6E705E85F6EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033048E-940D-4244-A2CA-C677D4BCEAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0059BE41-D7BD-49CF-A6A3-546C812FE9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1112,7 +1112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,12 +1127,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6554,7 +6548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477BF2E4-FC47-43A3-B33E-6D662FF1699E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -6584,9 +6578,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B9876-DD7C-406B-907E-239FB9E4782E}">
   <dimension ref="A1:T422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
